--- a/biology/Zoologie/Adelophryne_amapaensis/Adelophryne_amapaensis.xlsx
+++ b/biology/Zoologie/Adelophryne_amapaensis/Adelophryne_amapaensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelophryne amapaensis est une espèce d'amphibiens de la famille des Eleutherodactylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelophryne amapaensis est une espèce d'amphibiens de la famille des Eleutherodactylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'Amapá au Brésil[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'Amapá au Brésil.
 </t>
         </is>
       </c>
@@ -542,13 +556,85 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Adelophryne amapaensis Taucce (d), Costa-Campos (d), Haddad &amp; De Carvalho (d), 2020[2].
-Étymologie
-Son épithète spécifique, composée de amapa et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donnée en référence à sa localité type, l'Amapá.
-Publication originale
-(en) P. P. G. Taucce, C. E. Costa-Campos, C. F. B. Haddad et T. R. de Carvalho, « A new Amazonian species of the diminutive frog genus Adelophryne (Anura: Brachycephaloidea: Eleutherodactylidae) from the State of Amapá, northern Brazil », Copeia, États-Unis, vol. 108, no 4,‎ novembre 2020, p. 746–757 (ISSN 0045-8511, e-ISSN 1938-5110, DOI 10.1643/CH-19-254).</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Adelophryne amapaensis Taucce (d), Costa-Campos (d), Haddad &amp; De Carvalho (d), 2020.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Adelophryne_amapaensis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelophryne_amapaensis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, composée de amapa et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donnée en référence à sa localité type, l'Amapá.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Adelophryne_amapaensis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelophryne_amapaensis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) P. P. G. Taucce, C. E. Costa-Campos, C. F. B. Haddad et T. R. de Carvalho, « A new Amazonian species of the diminutive frog genus Adelophryne (Anura: Brachycephaloidea: Eleutherodactylidae) from the State of Amapá, northern Brazil », Copeia, États-Unis, vol. 108, no 4,‎ novembre 2020, p. 746–757 (ISSN 0045-8511, e-ISSN 1938-5110, DOI 10.1643/CH-19-254).</t>
         </is>
       </c>
     </row>
